--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:15:54+00:00</t>
+    <t>2024-05-22T12:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,6 +332,22 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Coding.extension:codeSystemName</t>
+  </si>
+  <si>
+    <t>codeSystemName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ema.europa.eu/fhir/extension/codeSystemName}
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Name of the coding system the 'coding' element belongs to as the number is not very explicative</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -367,54 +383,11 @@
     <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
   </si>
   <si>
-    <t>Coding.system.id</t>
+    <t>Coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Coding.system.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Coding.system.extension:codeSystemName</t>
-  </si>
-  <si>
-    <t>codeSystemName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ema.europa.eu/fhir/extension/codeSystemName}
-</t>
-  </si>
-  <si>
-    <t>Name of the coding system the 'coding' element belongs to as the number is not very explicative</t>
-  </si>
-  <si>
-    <t>Coding.system.value</t>
-  </si>
-  <si>
-    <t>Primitive value for uri</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>uri.value</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -807,7 +780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -816,8 +789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.97265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1311,15 +1284,17 @@
         <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>85</v>
@@ -1331,7 +1306,7 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -1342,12 +1317,8 @@
       <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>73</v>
       </c>
@@ -1395,36 +1366,36 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1432,7 +1403,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>85</v>
@@ -1444,19 +1415,23 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P6" t="s" s="2">
         <v>73</v>
       </c>
@@ -1504,7 +1479,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1516,24 +1491,24 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1544,7 +1519,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1553,18 +1528,20 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1601,56 +1578,56 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>85</v>
@@ -1662,19 +1639,21 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>73</v>
       </c>
@@ -1722,36 +1701,36 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1759,7 +1738,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>85</v>
@@ -1771,19 +1750,21 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P9" t="s" s="2">
         <v>73</v>
       </c>
@@ -1831,7 +1812,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1840,27 +1821,27 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1880,21 +1861,23 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
       </c>
@@ -1942,7 +1925,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1954,351 +1937,16 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM12" t="s" s="2">
         <v>151</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-coding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
